--- a/biology/Botanique/Céanothe/Céanothe.xlsx
+++ b/biology/Botanique/Céanothe/Céanothe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9anothe</t>
+          <t>Céanothe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceanothus
 Ceanothus (Les Céanothes), parfois appelés lilas de Californie pour leur parfum délicat et leurs jolis épis bleus, est un genre de plantes à fleurs de la famille des Rhamnacées. Ce sont des arbustes faciles à cultiver, dont les nombreuses formes permettent des usages variés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9anothe</t>
+          <t>Céanothe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont regroupées en petites grappes et apparaissent sur les rameaux d'un an, au printemps ou en été, selon les espèces, elles fournissent une floraison abondante, spectaculaire et de couleur bleu pâle, bleu tendre, brillant ou intense, légèrement parfumées chez certaines variétés. L'arbuste par sa floraison intense attire une multitude d'insectes pollinisateurs - abeilles, bourdons etc -  par dizaines les jours ensoleillés...
 La végétation est opulente à croissance relativement rapide, avec des feuilles ovales, coriaces, de couleur vert foncé ou gris-vert, plutôt petites (de 2 à 4 cm de long), excepté chez certaines variétés. D'autres ont un feuillage persistant.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9anothe</t>
+          <t>Céanothe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceanothus americanus, Thé du New Jersey, ou encore Céanothe d'Amérique[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceanothus americanus, Thé du New Jersey, ou encore Céanothe d'Amérique
 Ceanothus arboreus
 Ceanothus coeruleus
 Ceanothus confusus
@@ -582,7 +598,7 @@
 Ceanothus megacarpus
 Ceanothus oliganthus
 Ceanothus ophiochilus
-Ceanothus ovatus, le Céanothe à feuilles ovées[1]
+Ceanothus ovatus, le Céanothe à feuilles ovées
 Ceanothus palmeri
 Ceanothus papillosus
 Ceanothus parryi
@@ -628,7 +644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9anothe</t>
+          <t>Céanothe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -646,7 +662,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolés ou en massif, ils demandent de l'espace pour qu'ils puissent s'étendre à leur aise (2 à 3 m), et peuvent dans le meilleur des cas former un petit arbre de 3 à 4 m de haut, au tronc court en une quinzaine d'années.
 Soins : c'est une plante peu fragile, qui ne craint pas les parasites, mais les chenilles en raffolent. En climat rigoureux, ils doivent être protégés du froid en hiver et exposés aux endroits les plus chauds et ensoleillés, à l'abri des vents froids.
@@ -661,7 +679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9anothe</t>
+          <t>Céanothe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -679,7 +697,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les variétés à feuillages persistants et à port étalé sont utilisées en couvre-sol sur les talus et dans les rocailles.
 Les variétés à port dressé sont palissées contre un mur bien ensoleillé ou servent à habiller des clôtures.
